--- a/Examples/SCADA_reader_sample/SVI_Definition.xlsx
+++ b/Examples/SCADA_reader_sample/SVI_Definition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PhD\Codes\Github\PAL\Examples\SCADA_reader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PhD\Codes\Github\PAL\Examples\SCADA_reader_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84A66E4-EF74-4650-962E-83F2F6C4D418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3802A19-7AFA-4C02-A9C3-E561B521BCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITFC" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="225">
   <si>
     <t>InputNumber</t>
   </si>
@@ -738,7 +738,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -763,12 +763,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -790,8 +784,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,7 +1102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
@@ -7927,10 +7921,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEADF1E-B7A5-4321-826C-AC66D35A931E}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7980,9 +7974,7 @@
       <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
@@ -8012,14 +8004,11 @@
       <c r="I2" t="s">
         <v>157</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="8" t="s">
         <v>143</v>
       </c>
       <c r="K2" t="s">
         <v>178</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8050,14 +8039,11 @@
       <c r="I3" t="s">
         <v>157</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="8" t="s">
         <v>144</v>
       </c>
       <c r="K3" t="s">
         <v>178</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8088,14 +8074,11 @@
       <c r="I4" t="s">
         <v>157</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="8" t="s">
         <v>145</v>
       </c>
       <c r="K4" t="s">
         <v>178</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8126,14 +8109,11 @@
       <c r="I5" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="8" t="s">
         <v>189</v>
       </c>
       <c r="K5" t="s">
         <v>188</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8164,14 +8144,11 @@
       <c r="I6" t="s">
         <v>157</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="8" t="s">
         <v>191</v>
       </c>
       <c r="K6" t="s">
         <v>188</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8202,14 +8179,11 @@
       <c r="I7" t="s">
         <v>157</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="8" t="s">
         <v>192</v>
       </c>
       <c r="K7" t="s">
         <v>188</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8240,14 +8214,11 @@
       <c r="I8" t="s">
         <v>157</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="8" t="s">
         <v>190</v>
       </c>
       <c r="K8" t="s">
         <v>188</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8278,14 +8249,11 @@
       <c r="I9" t="s">
         <v>157</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="8" t="s">
         <v>193</v>
       </c>
       <c r="K9" t="s">
         <v>188</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8316,14 +8284,11 @@
       <c r="I10" t="s">
         <v>157</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="8" t="s">
         <v>195</v>
       </c>
       <c r="K10" t="s">
         <v>188</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8352,14 +8317,11 @@
       <c r="I11" t="s">
         <v>157</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="8" t="s">
         <v>196</v>
       </c>
       <c r="K11" t="s">
         <v>188</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8390,14 +8352,11 @@
       <c r="I12" t="s">
         <v>157</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="8" t="s">
         <v>62</v>
       </c>
       <c r="K12" t="s">
         <v>178</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8428,14 +8387,11 @@
       <c r="I13" t="s">
         <v>157</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="8" t="s">
         <v>61</v>
       </c>
       <c r="K13" t="s">
         <v>178</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8466,14 +8422,11 @@
       <c r="I14" t="s">
         <v>157</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="8" t="s">
         <v>123</v>
       </c>
       <c r="K14" t="s">
         <v>178</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8504,14 +8457,11 @@
       <c r="I15" t="s">
         <v>157</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="8" t="s">
         <v>64</v>
       </c>
       <c r="K15" t="s">
         <v>178</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8542,17 +8492,14 @@
       <c r="I16" t="s">
         <v>157</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K16" t="s">
         <v>178</v>
       </c>
-      <c r="L16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>198</v>
       </c>
@@ -8580,17 +8527,14 @@
       <c r="I17" t="s">
         <v>157</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="8" t="s">
         <v>124</v>
       </c>
       <c r="K17" t="s">
         <v>178</v>
       </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>198</v>
       </c>
@@ -8618,17 +8562,14 @@
       <c r="I18" t="s">
         <v>157</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="8" t="s">
         <v>66</v>
       </c>
       <c r="K18" t="s">
         <v>178</v>
       </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>198</v>
       </c>
@@ -8656,17 +8597,14 @@
       <c r="I19" t="s">
         <v>157</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="8" t="s">
         <v>65</v>
       </c>
       <c r="K19" t="s">
         <v>178</v>
       </c>
-      <c r="L19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>198</v>
       </c>
@@ -8694,17 +8632,14 @@
       <c r="I20" t="s">
         <v>157</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="8" t="s">
         <v>125</v>
       </c>
       <c r="K20" t="s">
         <v>178</v>
       </c>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>198</v>
       </c>
@@ -8732,17 +8667,14 @@
       <c r="I21" t="s">
         <v>157</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="8" t="s">
         <v>82</v>
       </c>
       <c r="K21" t="s">
         <v>188</v>
       </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>198</v>
       </c>
@@ -8770,17 +8702,14 @@
       <c r="I22" t="s">
         <v>157</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="8" t="s">
         <v>83</v>
       </c>
       <c r="K22" t="s">
         <v>188</v>
       </c>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>198</v>
       </c>
@@ -8808,17 +8737,14 @@
       <c r="I23" t="s">
         <v>157</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="8" t="s">
         <v>84</v>
       </c>
       <c r="K23" t="s">
         <v>188</v>
       </c>
-      <c r="L23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>198</v>
       </c>
@@ -8846,17 +8772,14 @@
       <c r="I24" t="s">
         <v>157</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="8" t="s">
         <v>85</v>
       </c>
       <c r="K24" t="s">
         <v>188</v>
       </c>
-      <c r="L24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>198</v>
       </c>
@@ -8884,17 +8807,14 @@
       <c r="I25" t="s">
         <v>157</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="8" t="s">
         <v>86</v>
       </c>
       <c r="K25" t="s">
         <v>188</v>
       </c>
-      <c r="L25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>198</v>
       </c>
@@ -8922,17 +8842,14 @@
       <c r="I26" t="s">
         <v>157</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="8" t="s">
         <v>87</v>
       </c>
       <c r="K26" t="s">
         <v>188</v>
       </c>
-      <c r="L26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>198</v>
       </c>
@@ -8958,17 +8875,14 @@
       <c r="I27" t="s">
         <v>157</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="8" t="s">
         <v>214</v>
       </c>
       <c r="K27" t="s">
         <v>188</v>
       </c>
-      <c r="L27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>215</v>
       </c>
@@ -8996,17 +8910,14 @@
       <c r="I28" t="s">
         <v>157</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="8" t="s">
         <v>98</v>
       </c>
       <c r="K28" t="s">
         <v>178</v>
       </c>
-      <c r="L28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>215</v>
       </c>
@@ -9034,17 +8945,14 @@
       <c r="I29" t="s">
         <v>157</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="8" t="s">
         <v>113</v>
       </c>
       <c r="K29" t="s">
         <v>178</v>
       </c>
-      <c r="L29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>215</v>
       </c>
@@ -9072,17 +8980,14 @@
       <c r="I30" t="s">
         <v>157</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="8" t="s">
         <v>128</v>
       </c>
       <c r="K30" t="s">
         <v>178</v>
       </c>
-      <c r="L30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>215</v>
       </c>
@@ -9110,17 +9015,14 @@
       <c r="I31" t="s">
         <v>157</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="8" t="s">
         <v>191</v>
       </c>
       <c r="K31" t="s">
         <v>178</v>
       </c>
-      <c r="L31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>215</v>
       </c>
@@ -9148,17 +9050,14 @@
       <c r="I32" t="s">
         <v>157</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="8" t="s">
         <v>193</v>
       </c>
       <c r="K32" t="s">
         <v>178</v>
       </c>
-      <c r="L32" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>215</v>
       </c>
@@ -9186,17 +9085,14 @@
       <c r="I33" t="s">
         <v>157</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="8" t="s">
         <v>221</v>
       </c>
       <c r="K33" t="s">
         <v>188</v>
       </c>
-      <c r="L33" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -9224,17 +9120,14 @@
       <c r="I34" t="s">
         <v>157</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="8" t="s">
         <v>222</v>
       </c>
       <c r="K34" t="s">
         <v>188</v>
       </c>
-      <c r="L34" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>215</v>
       </c>
@@ -9262,17 +9155,14 @@
       <c r="I35" t="s">
         <v>157</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="8" t="s">
         <v>223</v>
       </c>
       <c r="K35" t="s">
         <v>188</v>
       </c>
-      <c r="L35" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>215</v>
       </c>
@@ -9298,15 +9188,15 @@
       <c r="I36" t="s">
         <v>157</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="8" t="s">
         <v>224</v>
       </c>
       <c r="K36" t="s">
         <v>188</v>
       </c>
-      <c r="L36" s="8">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="J37" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
